--- a/pred_ohlcv/54_21/2019-10-21 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 DVP ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>28036.29801323385</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>28026.29801323385</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>431843.8512132339</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-111737.744086766</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-111737.744086766</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-107785.154186766</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-107785.154186766</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-109703.764086766</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-109713.764086766</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-109713.764086766</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-85137.01978676599</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-85137.01978676599</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-85137.01978676599</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-131726.137386766</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-131716.137386766</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-131716.137386766</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-134913.068386766</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-134903.068386766</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-134903.068386766</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-122925.604486766</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-185785.809086766</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-185785.809086766</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-185785.809086766</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>196426.441313234</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>724155.717080367</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1067592.362880367</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>797352.0925803671</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>797514.2603803672</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1471912.604407127</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1470004.577707127</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1550487.111907127</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1100477.111907127</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1078301.569707127</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1050687.429207127</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1033248.618007127</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1084643.700907127</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1084643.700907127</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1084643.700907127</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>973139.3685071273</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>816724.2771071272</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>772940.6159071273</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>773402.2710071272</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>773402.2710071272</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>773392.2710071272</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>837696.4278071272</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>837696.4278071272</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1003781.848707127</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>990313.1180071273</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>994311.8689071273</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1710393.399407127</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1660373.399407127</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1663104.984407127</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1663104.984407127</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1663104.984407127</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>1759170.470607127</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1759170.470607127</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>1759170.470607127</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1759170.470607127</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>1754892.497707127</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1784912.497707127</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1784912.497707127</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1773600.493907127</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1976578.023307127</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1976578.023307127</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>2024593.287207128</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1910971.819807128</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1921737.938707127</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>2102250.138007128</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2102206.138007128</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>2102206.138007128</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>2102206.138007128</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>2578285.850307127</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>6946401.136243804</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>7110737.051743804</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>6426211.247743804</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>6141538.053343804</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>6141538.053343804</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>6141538.053343804</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>6141887.657143803</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>6121171.761843803</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>6121171.761843803</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>6096858.621143803</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>6096858.621143803</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>6174985.131317487</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>6174985.131317487</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>6174985.131317487</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>6174985.131317487</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>6174985.131317487</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>6124236.681317487</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>6261191.825917487</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>6261191.825917487</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>6554197.057663183</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>6494715.389563182</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>6389074.538694103</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>6389074.538694103</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>5290681.403783364</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>5291036.538883364</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>5290142.524083364</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>5290142.524083364</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>5290164.524083364</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>5290164.524083364</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>5290164.524083364</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>5300279.289184035</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>5300279.289184035</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>5265872.971684035</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>4219970.391730693</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>4219970.391730693</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>4119970.391730693</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>4146029.820230693</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>2945889.257560422</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>2964899.290152203</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-21 DVP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-21 DVP ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>28006.29801323385</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>28036.29801323385</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>28026.29801323385</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>28036.29801323385</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>464591.1307132339</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-111737.744086766</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-107785.154186766</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-107785.154186766</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-109703.764086766</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-109713.764086766</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-109713.764086766</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-109548.034186766</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-85137.01978676599</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-85137.01978676599</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-131716.137386766</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-131716.137386766</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-134913.068386766</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-134903.068386766</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-134903.068386766</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-185785.809086766</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-185785.809086766</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-185785.809086766</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>196426.441313234</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>724155.717080367</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>1067592.362880367</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>797352.0925803671</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>797514.2603803672</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>1471912.604407127</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>1470004.577707127</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>1550487.111907127</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>1100477.111907127</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>1078301.569707127</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>1050687.429207127</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>1033248.618007127</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>1084643.700907127</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>1084643.700907127</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>1084643.700907127</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>973139.3685071273</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>816724.2771071272</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>772940.6159071273</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>773402.2710071272</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>773402.2710071272</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>773392.2710071272</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>837696.4278071272</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>837696.4278071272</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1003781.848707127</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>990313.1180071273</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>994311.8689071273</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>1710393.399407127</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>1660373.399407127</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>1663104.984407127</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>1663104.984407127</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>1663104.984407127</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>1759170.470607127</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1759170.470607127</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>1759170.470607127</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1759170.470607127</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>1754892.497707127</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1784912.497707127</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1784912.497707127</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1773600.493907127</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1976578.023307127</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1976578.023307127</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>2024593.287207128</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>1910971.819807128</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1921737.938707127</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>2102250.138007128</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2102206.138007128</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>2102206.138007128</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>2102206.138007128</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>2578285.850307127</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>6965545.635343804</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>6960905.809143804</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>6946401.136243804</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>7110737.051743804</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>6426211.247743804</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>6141538.053343804</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>6141538.053343804</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>6141538.053343804</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>6141887.657143803</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>6121171.761843803</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>6121171.761843803</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>6096858.621143803</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>6185044.175717487</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>6165568.770117487</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>6174985.131317487</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>6381557.595663182</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>5290681.403783364</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>5291036.538883364</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>5290142.524083364</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>5290142.524083364</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>5290164.524083364</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>5290164.524083364</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>5290164.524083364</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>5300279.289184035</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>5300279.289184035</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>5265872.971684035</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>4219970.391730693</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>4219970.391730693</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>4119970.391730693</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>4146029.820230693</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>2945889.257560422</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>2964899.290152203</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
